--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/unBindPip.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/unBindPip.xlsx
@@ -1,25 +1,170 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>unbind_tips_one</t>
+  </si>
+  <si>
+    <t>If the EIP needs to be associated after disassociation, it only supports associating the EIP that is in the same availability zone with the virtual machine or that has the full availability zone attribute</t>
+  </si>
+  <si>
+    <t>unbind_tips_two</t>
+  </si>
+  <si>
+    <t>If the EIP needs to be associated after disassociation, it only supports associating EIP that has the full availability zone attribute</t>
+  </si>
+  <si>
+    <t>confirm_unbind_pip</t>
+  </si>
+  <si>
+    <t>Confirm to disassociate the EIP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑后若需绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，仅支持绑定与云主机同可用区或带全可用区属性的公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑后若需绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，仅支持绑定全可用区属性的公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +187,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,39 +528,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="226.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>unbind_tips_one</v>
-      </c>
-      <c r="B1" t="str">
-        <v>解绑后若需绑定公网IP，仅支持绑定与云主机同可用区或带全可用区属性的公网IP</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>unbind_tips_two</v>
-      </c>
-      <c r="B2" t="str">
-        <v>解绑后若需绑定公网IP，仅支持绑定全可用区属性的公网IP</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>confirm_unbind_pip</v>
-      </c>
-      <c r="B3" t="str">
-        <v>确认解绑公网IP</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="C1:C3 A1:A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>